--- a/docs/timesheet_Basiel_Smitz.xlsx
+++ b/docs/timesheet_Basiel_Smitz.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>Database design</t>
+  </si>
+  <si>
+    <t>Powerpoint</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>opzetten laravel omgeving</t>
+  </si>
+  <si>
+    <t>Style tiles</t>
+  </si>
+  <si>
+    <t>Bespreking style tiles, wireframes, ...</t>
+  </si>
+  <si>
+    <t>Database migrations</t>
+  </si>
+  <si>
+    <t>Visual designs</t>
+  </si>
+  <si>
+    <t>Dossier in MD</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -482,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,6 +686,125 @@
       </c>
       <c r="F9" s="2"/>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>42797</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>42802</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>42804</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>42807</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>42808</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>42810</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>42810</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/timesheet_Basiel_Smitz.xlsx
+++ b/docs/timesheet_Basiel_Smitz.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Maken van de sitemap</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>Uitdenken functionaliteit per pagina (app)</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>wireframes</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>Database design</t>
   </si>
   <si>
@@ -102,7 +96,91 @@
     <t>Dossier in MD</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>Database design en seeding</t>
+  </si>
+  <si>
+    <t>Fix probleem in models + begin seeders + routes</t>
+  </si>
+  <si>
+    <t>Verder werken aan routes en controllers</t>
+  </si>
+  <si>
+    <t>Verder werken aan routes en controllers + style met bootstrap</t>
+  </si>
+  <si>
+    <t>afwerken dashboard + begin filters</t>
+  </si>
+  <si>
+    <t>Backoffice Filters</t>
+  </si>
+  <si>
+    <t>Backoffice filters + Details</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>CRUD election en referendum create en update</t>
+  </si>
+  <si>
+    <t>CRUD delete</t>
+  </si>
+  <si>
+    <t>afwerken CRUD parties + groepen</t>
+  </si>
+  <si>
+    <t>Route groups + start front</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>clear cache</t>
+  </si>
+  <si>
+    <t>front home</t>
+  </si>
+  <si>
+    <t>Front: Home</t>
+  </si>
+  <si>
+    <t>Front: Referenda + start details</t>
+  </si>
+  <si>
+    <t>Front details + stem via api + laden user data</t>
+  </si>
+  <si>
+    <t>laravel passport</t>
+  </si>
+  <si>
+    <t>Inladen userdata + shared data</t>
+  </si>
+  <si>
+    <t>Front account &amp; group details + overview parties &amp; groups</t>
+  </si>
+  <si>
+    <t>user details + bug groups</t>
+  </si>
+  <si>
+    <t>front create referenda + validatie</t>
+  </si>
+  <si>
+    <t>Front join Group, join election as candidate + look into events / sheduling tasks</t>
+  </si>
+  <si>
+    <t>change Statuses, calculate scores, bugfixes, add pictures on create</t>
+  </si>
+  <si>
+    <t>approve candidates + bug fixing + adjustments</t>
+  </si>
+  <si>
+    <t>prevent user from voting multiple times + redirect bugs + loader + styling backoffice + dutchify</t>
+  </si>
+  <si>
+    <t>Documentation + fixes + restart + style verify</t>
+  </si>
+  <si>
+    <t>Totaal</t>
   </si>
 </sst>
 </file>
@@ -131,7 +209,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -163,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,11 +249,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -183,16 +276,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +620,7 @@
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +638,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>42783</v>
       </c>
@@ -558,9 +654,8 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>42786</v>
       </c>
@@ -576,9 +671,8 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>42787</v>
       </c>
@@ -591,12 +685,11 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>42787</v>
       </c>
@@ -607,14 +700,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>42787</v>
       </c>
@@ -625,14 +717,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>42788</v>
       </c>
@@ -643,14 +734,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>42789</v>
       </c>
@@ -661,14 +751,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>42790</v>
       </c>
@@ -679,14 +768,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>42797</v>
       </c>
@@ -694,16 +782,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>42802</v>
       </c>
@@ -714,13 +802,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>42804</v>
       </c>
@@ -731,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>42807</v>
       </c>
@@ -745,16 +833,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>42808</v>
       </c>
@@ -765,13 +853,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>42810</v>
       </c>
@@ -782,13 +870,13 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>42810</v>
       </c>
@@ -799,14 +887,502 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>42818</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>42824</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>42824</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>42825</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>42846</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>42853</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>42860</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>42863</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>42863</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>42864</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>42865</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>42866</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>42866</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>42867</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>42870</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>42871</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>42872</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>42873</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>42873</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>42875</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>42876</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>42877</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>42878</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>42879</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>42880</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>42881</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42882</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>42827</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <f>SUM(E2:E44)</f>
+        <v>175.75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E9"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/docs/timesheet_Basiel_Smitz.xlsx
+++ b/docs/timesheet_Basiel_Smitz.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Totaal</t>
+  </si>
+  <si>
+    <t>Aanpassingen wireframes + ppt</t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,7 +966,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>42846</v>
+        <v>42827</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
@@ -972,15 +975,15 @@
         <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="6">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>42853</v>
+        <v>42846</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
@@ -989,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="6">
         <v>4.5</v>
@@ -997,7 +1000,7 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>42860</v>
+        <v>42853</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
@@ -1006,15 +1009,15 @@
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="6">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>42863</v>
+        <v>42860</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>5</v>
@@ -1023,10 +1026,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="6">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1040,15 +1043,15 @@
         <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
-        <v>42864</v>
+        <v>42863</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>5</v>
@@ -1057,15 +1060,15 @@
         <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="7">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
-        <v>42865</v>
+        <v>42864</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>5</v>
@@ -1074,15 +1077,15 @@
         <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="6">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
-        <v>42866</v>
+        <v>42865</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -1091,10 +1094,10 @@
         <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1108,15 +1111,15 @@
         <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
-        <v>42867</v>
+        <v>42866</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
@@ -1125,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -1133,7 +1136,7 @@
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
-        <v>42870</v>
+        <v>42867</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
@@ -1142,15 +1145,15 @@
         <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
-        <v>42871</v>
+        <v>42870</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>5</v>
@@ -1159,15 +1162,15 @@
         <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
-        <v>42872</v>
+        <v>42871</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
@@ -1176,15 +1179,15 @@
         <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="6">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
-        <v>42873</v>
+        <v>42872</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
@@ -1193,10 +1196,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="6">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1210,15 +1213,15 @@
         <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
-        <v>42875</v>
+        <v>42873</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>5</v>
@@ -1227,15 +1230,15 @@
         <v>17</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
-        <v>42876</v>
+        <v>42875</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>5</v>
@@ -1244,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="6">
         <v>4</v>
@@ -1252,109 +1255,109 @@
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
+        <v>42876</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>42877</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>4.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>42878</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="6">
-        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
+        <v>42878</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
         <v>42879</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
         <v>42880</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+    <row r="43" spans="1:5" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
         <v>42881</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>42882</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="6">
-        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
-        <v>42827</v>
+        <v>42882</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>5</v>
@@ -1363,26 +1366,47 @@
         <v>17</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E44" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>42883</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1">
-        <f>SUM(E2:E44)</f>
-        <v>175.75</v>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <f>SUM(E2:E45)</f>
+        <v>178.75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E46">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
